--- a/interval_exp.xlsx
+++ b/interval_exp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-45.47079390110166</v>
+        <v>-43.87517153380406</v>
       </c>
       <c r="C2" t="n">
-        <v>-110.5810209263205</v>
+        <v>-11.06323681431941</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-19.95707772214183</v>
+        <v>-43.29067935086621</v>
       </c>
       <c r="C3" t="n">
-        <v>-102.6131520259532</v>
+        <v>-11.25092563981189</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.01807600966727</v>
+        <v>-42.74344583379381</v>
       </c>
       <c r="C4" t="n">
-        <v>-95.13941575673819</v>
+        <v>-11.43436114408025</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6159690973349444</v>
+        <v>-42.2317937017988</v>
       </c>
       <c r="C5" t="n">
-        <v>-88.13930455054837</v>
+        <v>-11.61348698550973</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4178766488128605</v>
+        <v>-41.75408132972382</v>
       </c>
       <c r="C6" t="n">
-        <v>-81.59273840008424</v>
+        <v>-11.78824301173991</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6278378554155236</v>
+        <v>-41.30870274804217</v>
       </c>
       <c r="C7" t="n">
-        <v>-75.48006485887365</v>
+        <v>-11.95856534449818</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.637956982654586</v>
+        <v>-40.89408764285792</v>
       </c>
       <c r="C8" t="n">
-        <v>-69.7820590412723</v>
+        <v>-12.12438649108783</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.011596632793411</v>
+        <v>-40.50870135590571</v>
       </c>
       <c r="C9" t="n">
-        <v>-64.47992362246339</v>
+        <v>-12.28563548224566</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-26.8828379760274</v>
+        <v>-40.15104488455094</v>
       </c>
       <c r="C10" t="n">
-        <v>-59.55528883845764</v>
+        <v>-12.44223803571267</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,1000 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-59.07093354285745</v>
+        <v>-39.81965488178972</v>
       </c>
       <c r="C11" t="n">
-        <v>-54.99021248609342</v>
+        <v>-12.59411674449645</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-39.51310365624879</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.74119128845465</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-39.22999917218559</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.88337866750354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-38.9689850494883</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.02059345446458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-38.72874056367571</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.15274806530974</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-38.50798064589736</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-13.2797530443613</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-38.30545588293345</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-13.40151736184713</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-38.11995251719487</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-13.51794872111059</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-37.95029244672321</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-13.62895387272665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-37.79533322519075</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-13.73443893278132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-37.65396806190041</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-13.83430970262736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-37.52512582178588</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.92847198753195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-37.40777102541148</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.01683191177628</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-37.30090384897224</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.09929622794646</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-37.20356012429384</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-14.17577261836361</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-37.11481133883272</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.24616998683124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-37.03376463567595</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.31039873912262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-36.9595628135413</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-14.36837105088343</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-36.89138432677724</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.42000112187931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-36.82844328536294</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-14.46520541576655</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-36.76998945490822</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-14.50390288480479</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-36.71530825665361</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-14.5360151791555</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-36.66372076747034</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-14.56146684061887</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-36.61458371986029</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-14.58018548084946</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-36.56728950195609</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-14.59210194425705</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-36.52126615752099</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-14.59715045594252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-36.47597738594899</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-14.59526875513772</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-36.43092254226472</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-14.58639821471494</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-36.38563663712354</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-14.57048394740519</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-36.33969033681148</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.54747489941668</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-36.29268996324528</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-14.51732393217707</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-36.24427749397232</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-14.47998789293653</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-36.19413056217073</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-14.43542767496535</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-36.14196245664927</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-14.38360826806181</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-36.08752212184745</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-14.3244988000542</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-36.03059415783541</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-14.25807256993867</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-35.970998820314</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-14.18430707324152</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-35.90859202061476</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-14.10318402013496</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-35.84326532569995</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-14.01468934676774</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-35.77494595816245</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-13.91881322020128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-35.70359679622587</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-13.8155500372659</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-35.62921637374453</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-13.70489841757477</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-35.55183888020337</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-13.58686119085426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-35.4715341607181</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-13.46144537867099</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-35.38840771603506</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-13.32866217055802</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-35.30260070253129</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-13.18852689446779</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-35.21428993221454</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-13.04105898140664</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-35.12368787272322</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-12.88628192403791</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-35.03104264732644</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-12.72422322897776</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-34.93663803492402</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-12.55491436245086</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-34.84079347004641</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-12.37839068892363</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-34.74386404285482</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-12.19469140229172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-34.64624049914111</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-12.00385944916586</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-34.54834924032782</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-11.80594144377958</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-34.45065232346818</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-11.60098757403166</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-34.35364746124613</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-11.38905149817895</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-34.25786802197631</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-11.17019023171156</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-34.16388302960397</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-10.94446402397243</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-34.07229716370516</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-10.7119362241293</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-33.98375075948653</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-10.47267313616798</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-33.89891980778546</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-10.22674386265333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-33.81851595506999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-9.974220137097175</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-33.74328650343889</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-9.715176144881463</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-33.67401441062159</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-9.449688332808385</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-33.61151828997819</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-9.177835207486812</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-33.55665241049952</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-8.89969712291388</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-33.51030669680708</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-8.6153560577702</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-33.47340672915306</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-8.324895383114356</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-33.44691374342031</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-8.028399621333838</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-33.43182463112242</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-7.725954197382094</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-33.42917193940363</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-7.417645183501079</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-33.44002387103888</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-7.103559038791292</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-33.46548428443381</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-6.783782345142776</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-33.50669269362471</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-6.458401541176312</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-33.56482426827861</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-6.127502655960123</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-33.64108983369319</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-5.791171044359539</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-33.73673587079684</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.449491125942103</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-33.8530445161486</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-5.102546129395115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-33.99133356193826</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-4.750417844414626</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-34.15295645598627</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-4.393186382993157</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-34.33930230174373</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-4.030929951966726</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-34.55179585829249</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-3.663724638581755</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-34.79189754034506</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-3.291644210709282</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-35.06110341824461</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.914759933171471</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-35.36094521796506</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.533140401455857</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-35.69299032111097</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-2.146851393881177</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-36.05884176491759</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.755955743049671</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-36.46013824225089</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.360513227179106</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-36.89855410160751</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.9605804816604335</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-37.37579934711476</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.5562109309380769</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-37.89361963853067</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.1474547405661735</v>
       </c>
     </row>
   </sheetData>
